--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -14,61 +14,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>$coleccionPalabras=</t>
-  </si>
-  <si>
-    <t>MUJER</t>
-  </si>
-  <si>
-    <t>QUESO</t>
-  </si>
-  <si>
-    <t>FUEGO</t>
-  </si>
-  <si>
-    <t>CASAS</t>
-  </si>
-  <si>
-    <t>RASGO</t>
-  </si>
-  <si>
-    <t>GATOS</t>
-  </si>
-  <si>
-    <t>Tipos de datos: Almacena valores String</t>
-  </si>
-  <si>
-    <t>Tipo: Indexado (los índices son numéricos)</t>
-  </si>
-  <si>
-    <t>Información de la estructura:</t>
-  </si>
-  <si>
-    <t>//indices</t>
-  </si>
-  <si>
-    <t>//valores</t>
-  </si>
-  <si>
-    <t>**** COMPLETAR ****</t>
-  </si>
-  <si>
-    <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
-  </si>
-  <si>
-    <t>A continuación puede agregar el resto de las estructuras de datos</t>
-  </si>
-  <si>
-    <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+  <si>
+    <t xml:space="preserve">REPRESENTACION   DE  LOS  ARREGLOS  DEL  ARCHIVO    programaParraVillegasOñativa.php </t>
+  </si>
+  <si>
+    <t>De la función  cargarColeccionPartidas , está el   array  $coleccionPartidas, que es un arreglo del tipo multidimensional que tiene índices indexados para acceder a  arreglos asociativos.</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>$palabraWordix</t>
+  </si>
+  <si>
+    <t>“QUESO”</t>
+  </si>
+  <si>
+    <t>“FUEGO”</t>
+  </si>
+  <si>
+    <t>“MUJER”</t>
+  </si>
+  <si>
+    <t>“CASAS”</t>
+  </si>
+  <si>
+    <t>“RASGOS”</t>
+  </si>
+  <si>
+    <t>“GATOS”</t>
+  </si>
+  <si>
+    <t>$jugador</t>
+  </si>
+  <si>
+    <t>miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   pinqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   feli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    feli</t>
+  </si>
+  <si>
+    <t>“GOTAS”</t>
+  </si>
+  <si>
+    <t>“HUEVO”</t>
+  </si>
+  <si>
+    <t>$intento</t>
+  </si>
+  <si>
+    <t>$puntaje</t>
+  </si>
+  <si>
+    <t>“TINTO”</t>
+  </si>
+  <si>
+    <t>“NAVES”</t>
+  </si>
+  <si>
+    <t>“VERDE”</t>
+  </si>
+  <si>
+    <t>“MELON”</t>
+  </si>
+  <si>
+    <t>“YUYOS”</t>
+  </si>
+  <si>
+    <t>“PIANO”</t>
+  </si>
+  <si>
+    <t>“feli”</t>
+  </si>
+  <si>
+    <t>“leo”</t>
+  </si>
+  <si>
+    <t>“milo”</t>
+  </si>
+  <si>
+    <t>“PISOS”</t>
+  </si>
+  <si>
+    <t>“pipi”</t>
+  </si>
+  <si>
+    <t>“PASTO”</t>
+  </si>
+  <si>
+    <t>“roro”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De la función  cargarColeccionPartidas,  está el arreglo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$coleccionPalabras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  que es un arreglo de indexado</t>
+    </r>
+  </si>
+  <si>
+    <t>$coleccionPalabras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “MUJER”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “QUESO”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 5</t>
+  </si>
+  <si>
+    <t>“MOUSE”</t>
+  </si>
+  <si>
+    <t>“JEANS”</t>
+  </si>
+  <si>
+    <t>“TUMBA”</t>
+  </si>
+  <si>
+    <t>De la función  iniciarTeclado, tiene el arreglo $teclado, que es un arreglo del tipo asociativo.</t>
+  </si>
+  <si>
+    <t>$teclado</t>
+  </si>
+  <si>
+    <t>“ A ”</t>
+  </si>
+  <si>
+    <t>“ B ”</t>
+  </si>
+  <si>
+    <t>“C”</t>
+  </si>
+  <si>
+    <t>“D”</t>
+  </si>
+  <si>
+    <t>ESTADO_LETRA_DISPONIBLE</t>
+  </si>
+  <si>
+    <t>“E”</t>
+  </si>
+  <si>
+    <t>“F”</t>
+  </si>
+  <si>
+    <t>“G”</t>
+  </si>
+  <si>
+    <t>“H”</t>
+  </si>
+  <si>
+    <t>“I ”</t>
+  </si>
+  <si>
+    <t>“J ”</t>
+  </si>
+  <si>
+    <t>“K ”</t>
+  </si>
+  <si>
+    <t>“L ”</t>
+  </si>
+  <si>
+    <t>“M ”</t>
+  </si>
+  <si>
+    <t>“N ”</t>
+  </si>
+  <si>
+    <t>“O ”</t>
+  </si>
+  <si>
+    <t>“P ”</t>
+  </si>
+  <si>
+    <t>“Q”</t>
+  </si>
+  <si>
+    <t>“R”</t>
+  </si>
+  <si>
+    <t>“S”</t>
+  </si>
+  <si>
+    <t>“T”</t>
+  </si>
+  <si>
+    <t>“U”</t>
+  </si>
+  <si>
+    <t>“V ”</t>
+  </si>
+  <si>
+    <t>“W”</t>
+  </si>
+  <si>
+    <t>“X ”</t>
+  </si>
+  <si>
+    <t>“Y”</t>
+  </si>
+  <si>
+    <t>“Z ”</t>
+  </si>
+  <si>
+    <t>$coleccion</t>
+  </si>
+  <si>
+    <t>$p1</t>
+  </si>
+  <si>
+    <t>$p2</t>
+  </si>
+  <si>
+    <t>$p3</t>
+  </si>
+  <si>
+    <t>$p4</t>
+  </si>
+  <si>
+    <t>$p5</t>
+  </si>
+  <si>
+    <t>$p6</t>
+  </si>
+  <si>
+    <t>$p7</t>
+  </si>
+  <si>
+    <t>$p8</t>
+  </si>
+  <si>
+    <t>$p9</t>
+  </si>
+  <si>
+    <t>$p10</t>
+  </si>
+  <si>
+    <t>$p11</t>
+  </si>
+  <si>
+    <t>$p12</t>
+  </si>
+  <si>
+    <t>$p13</t>
+  </si>
+  <si>
+    <t>$p14</t>
+  </si>
+  <si>
+    <t>$p15</t>
+  </si>
+  <si>
+    <t>$p16</t>
+  </si>
+  <si>
+    <t>colección que es un arreglo del tipo multidimensional que tiene indices indexados para accder a arreglos asociativos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,24 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -125,57 +370,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +607,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +642,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,109 +818,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10">
+        <v>7</v>
+      </c>
+      <c r="I4" s="10">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10">
+        <v>11</v>
+      </c>
+      <c r="M4" s="10">
+        <v>12</v>
+      </c>
+      <c r="N4" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="O4" s="10">
+        <v>14</v>
+      </c>
+      <c r="P4" s="14">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>6</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>3</v>
+      </c>
+      <c r="K7" s="17">
+        <v>4</v>
+      </c>
+      <c r="L7" s="17">
+        <v>5</v>
+      </c>
+      <c r="M7" s="17">
+        <v>6</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17">
+        <v>8</v>
+      </c>
+      <c r="E8" s="17">
+        <v>7</v>
+      </c>
+      <c r="F8" s="17">
+        <v>7</v>
+      </c>
+      <c r="G8" s="17">
+        <v>5</v>
+      </c>
+      <c r="H8" s="17">
+        <v>9</v>
+      </c>
+      <c r="I8" s="17">
+        <v>18</v>
+      </c>
+      <c r="J8" s="16">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17">
+        <v>9</v>
+      </c>
+      <c r="L8" s="17">
+        <v>8</v>
+      </c>
+      <c r="M8" s="17">
+        <v>5</v>
+      </c>
+      <c r="N8" s="17">
+        <v>13</v>
+      </c>
+      <c r="O8" s="17">
+        <v>9</v>
+      </c>
+      <c r="P8" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G13" s="15">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="L13" s="4">
+        <v>11</v>
+      </c>
+      <c r="M13" s="15">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>16</v>
+      </c>
+      <c r="R13" s="4">
+        <v>17</v>
+      </c>
+      <c r="S13" s="15">
+        <v>18</v>
+      </c>
+      <c r="T13" s="4">
+        <v>19</v>
+      </c>
+      <c r="U13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3" t="s">
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="H14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
